--- a/托业基点爬虫(托业基点的岗位)/数据分析.xlsx
+++ b/托业基点爬虫(托业基点的岗位)/数据分析.xlsx
@@ -4,25 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7500"/>
+    <workbookView windowWidth="20490" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4 (2)" sheetId="6" r:id="rId1"/>
     <sheet name="类型" sheetId="5" r:id="rId2"/>
-    <sheet name="toice -年收" sheetId="7" r:id="rId3"/>
+    <sheet name="年收" sheetId="8" r:id="rId3"/>
+    <sheet name="toice -年收" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet4 (2)'!$E$1:$F$1065</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>type</t>
   </si>
@@ -117,10 +119,16 @@
     <t>总计</t>
   </si>
   <si>
-    <t>ioeic</t>
+    <t>年収</t>
   </si>
   <si>
-    <t>年収</t>
+    <t>计数项:年収</t>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>ioeic</t>
   </si>
 </sst>
 </file>
@@ -128,15 +136,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -150,46 +180,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,69 +210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,13 +227,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,7 +303,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,31 +411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,61 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,13 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,31 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,17 +503,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +516,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -537,51 +586,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -591,85 +605,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,65 +692,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,6 +758,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,6 +815,15 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -821,7 +847,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[工作簿1]类型!数据透视表2</c:name>
+    <c:name>[数据分析.xlsx]类型!数据透视表2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1628,6 +1654,923 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[数据分析.xlsx]年收!数据透视表1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.053141862489121"/>
+          <c:y val="0.0270535189178592"/>
+          <c:w val="0.941636205395996"/>
+          <c:h val="0.892256420309743"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>年收!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>汇总</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>年收!$A$4:$A$109</c:f>
+              <c:strCache>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>年收!$B$4:$B$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="417788365"/>
+        <c:axId val="977200338"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="417788365"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="977200338"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="977200338"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417788365"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.126884601372275"/>
+          <c:y val="0.218990841560451"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -10864,6 +11807,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11423,6 +12406,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11996,6 +13482,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1857375" y="552450"/>
+        <a:ext cx="6553200" cy="3610610"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -12030,7 +13551,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="43738.5562152778" refreshedBy="w" recordCount="1064">
   <cacheSource type="worksheet">
-    <worksheetSource name="#NAME?"/>
+    <worksheetSource ref="A1:A1" sheet="Sheet4 (2)"/>
   </cacheSource>
   <cacheFields count="1">
     <cacheField name="type" numFmtId="0">
@@ -12069,6 +13590,125 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="43738.5728009259" refreshedBy="w" recordCount="989">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:B1048576" sheet="toice -年收"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="年収" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="192" maxValue="1200" count="105">
+        <n v="500"/>
+        <n v="300"/>
+        <n v="450"/>
+        <n v="403"/>
+        <n v="490"/>
+        <n v="302"/>
+        <n v="288"/>
+        <n v="504"/>
+        <n v="576"/>
+        <n v="648"/>
+        <n v="533"/>
+        <n v="400"/>
+        <n v="264"/>
+        <n v="440"/>
+        <n v="600"/>
+        <n v="620"/>
+        <n v="550"/>
+        <n v="380"/>
+        <n v="360"/>
+        <n v="706"/>
+        <n v="768"/>
+        <n v="492"/>
+        <n v="480"/>
+        <n v="384"/>
+        <n v="276"/>
+        <n v="700"/>
+        <n v="560"/>
+        <n v="575"/>
+        <n v="340"/>
+        <n v="350"/>
+        <n v="1000"/>
+        <n v="200"/>
+        <n v="580"/>
+        <n v="375"/>
+        <n v="320"/>
+        <n v="530"/>
+        <n v="650"/>
+        <n v="430"/>
+        <n v="520"/>
+        <n v="513"/>
+        <n v="518"/>
+        <n v="806"/>
+        <n v="778"/>
+        <n v="547"/>
+        <n v="230.4"/>
+        <n v="755"/>
+        <n v="446"/>
+        <n v="619"/>
+        <n v="605"/>
+        <n v="720"/>
+        <n v="631"/>
+        <n v="597"/>
+        <n v="240"/>
+        <n v="414"/>
+        <n v="800"/>
+        <n v="562"/>
+        <n v="410"/>
+        <n v="900"/>
+        <n v="461"/>
+        <n v="336"/>
+        <n v="528"/>
+        <n v="634"/>
+        <n v="346"/>
+        <n v="636"/>
+        <n v="408"/>
+        <n v="660"/>
+        <n v="252"/>
+        <n v="780"/>
+        <n v="690"/>
+        <n v="368"/>
+        <n v="1100"/>
+        <n v="455"/>
+        <n v="250"/>
+        <n v="460"/>
+        <n v="389"/>
+        <n v="475"/>
+        <n v="590"/>
+        <n v="432"/>
+        <n v="510"/>
+        <n v="737"/>
+        <n v="950"/>
+        <n v="467"/>
+        <n v="864"/>
+        <n v="192"/>
+        <n v="457"/>
+        <n v="352"/>
+        <n v="740"/>
+        <n v="472"/>
+        <n v="295"/>
+        <n v="556"/>
+        <n v="564"/>
+        <n v="420"/>
+        <n v="348"/>
+        <n v="470"/>
+        <n v="390"/>
+        <n v="691"/>
+        <n v="703"/>
+        <n v="423"/>
+        <n v="1200"/>
+        <n v="435"/>
+        <n v="370"/>
+        <n v="540"/>
+        <n v="774"/>
+        <n v="374"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1064">
   <r>
@@ -15262,6 +16902,2978 @@
   </r>
   <r>
     <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="989">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="83"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="85"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="86"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="87"/>
+  </r>
+  <r>
+    <x v="88"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="90"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="94"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="95"/>
+  </r>
+  <r>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="97"/>
+  </r>
+  <r>
+    <x v="97"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="98"/>
+  </r>
+  <r>
+    <x v="99"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="99"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="100"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="101"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="102"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="103"/>
+  </r>
+  <r>
+    <x v="103"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="95"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="104"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -15556,6 +20168,464 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B109" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" compact="0" showAll="0">
+      <items count="106">
+        <item x="83"/>
+        <item x="31"/>
+        <item x="44"/>
+        <item x="52"/>
+        <item x="72"/>
+        <item x="66"/>
+        <item x="12"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item x="88"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="34"/>
+        <item x="59"/>
+        <item x="28"/>
+        <item x="62"/>
+        <item x="92"/>
+        <item x="29"/>
+        <item x="85"/>
+        <item x="18"/>
+        <item x="69"/>
+        <item x="100"/>
+        <item x="103"/>
+        <item x="33"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="74"/>
+        <item x="94"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="64"/>
+        <item x="56"/>
+        <item x="53"/>
+        <item x="91"/>
+        <item x="97"/>
+        <item x="37"/>
+        <item x="77"/>
+        <item x="99"/>
+        <item x="13"/>
+        <item x="46"/>
+        <item x="2"/>
+        <item x="71"/>
+        <item x="84"/>
+        <item x="73"/>
+        <item x="58"/>
+        <item x="81"/>
+        <item x="93"/>
+        <item x="87"/>
+        <item x="75"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item x="21"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="78"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="38"/>
+        <item x="60"/>
+        <item x="35"/>
+        <item x="10"/>
+        <item x="101"/>
+        <item x="43"/>
+        <item x="16"/>
+        <item x="89"/>
+        <item x="26"/>
+        <item x="55"/>
+        <item x="90"/>
+        <item x="27"/>
+        <item x="8"/>
+        <item x="32"/>
+        <item x="76"/>
+        <item x="51"/>
+        <item x="14"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="15"/>
+        <item x="50"/>
+        <item x="61"/>
+        <item x="63"/>
+        <item x="9"/>
+        <item x="36"/>
+        <item x="65"/>
+        <item x="68"/>
+        <item x="95"/>
+        <item x="25"/>
+        <item x="96"/>
+        <item x="19"/>
+        <item x="49"/>
+        <item x="79"/>
+        <item x="86"/>
+        <item x="45"/>
+        <item x="20"/>
+        <item x="102"/>
+        <item x="42"/>
+        <item x="67"/>
+        <item x="54"/>
+        <item x="41"/>
+        <item x="82"/>
+        <item x="57"/>
+        <item x="80"/>
+        <item x="30"/>
+        <item x="70"/>
+        <item x="98"/>
+        <item x="104"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="106">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:年収" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -15816,8 +20886,8 @@
   <sheetPr/>
   <dimension ref="E2:J1065"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="E2:F309"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -15897,8 +20967,6 @@
       <c r="F10" s="2">
         <v>302.4</v>
       </c>
-      <c r="G10"/>
-      <c r="H10"/>
       <c r="J10">
         <v>40</v>
       </c>
@@ -15910,8 +20978,6 @@
       <c r="F11" s="2">
         <v>504</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
       <c r="J11">
         <v>24</v>
       </c>
@@ -15923,8 +20989,6 @@
       <c r="F12" s="2">
         <v>504</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
       <c r="J12">
         <v>25</v>
       </c>
@@ -15936,8 +21000,6 @@
       <c r="F13" s="2">
         <v>576</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
       <c r="J13">
         <v>30</v>
       </c>
@@ -15949,8 +21011,6 @@
       <c r="F14" s="2">
         <v>648</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
       <c r="J14">
         <v>30</v>
       </c>
@@ -15962,8 +21022,6 @@
       <c r="F15" s="2">
         <v>504</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
       <c r="J15">
         <v>22</v>
       </c>
@@ -15975,8 +21033,6 @@
       <c r="F16" s="2">
         <v>576</v>
       </c>
-      <c r="G16"/>
-      <c r="H16"/>
       <c r="J16">
         <v>48</v>
       </c>
@@ -15988,8 +21044,6 @@
       <c r="F17" s="2">
         <v>532.8</v>
       </c>
-      <c r="G17"/>
-      <c r="H17"/>
       <c r="J17">
         <v>28</v>
       </c>
@@ -16001,8 +21055,6 @@
       <c r="F18" s="2">
         <v>489.6</v>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
       <c r="J18">
         <v>30</v>
       </c>
@@ -16014,8 +21066,6 @@
       <c r="F19" s="2">
         <v>705.6</v>
       </c>
-      <c r="G19"/>
-      <c r="H19"/>
       <c r="J19">
         <v>47</v>
       </c>
@@ -16027,8 +21077,6 @@
       <c r="F20" s="2">
         <v>768.096</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
       <c r="J20">
         <v>48</v>
       </c>
@@ -16040,8 +21088,6 @@
       <c r="F21" s="2">
         <v>768.096</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
       <c r="J21">
         <v>28</v>
       </c>
@@ -16053,8 +21099,6 @@
       <c r="F22" s="2">
         <v>768.096</v>
       </c>
-      <c r="G22"/>
-      <c r="H22"/>
       <c r="J22">
         <v>32</v>
       </c>
@@ -16066,8 +21110,6 @@
       <c r="F23" s="2">
         <v>768.096</v>
       </c>
-      <c r="G23"/>
-      <c r="H23"/>
       <c r="J23">
         <v>35</v>
       </c>
@@ -16079,8 +21121,6 @@
       <c r="F24" s="2">
         <v>768.096</v>
       </c>
-      <c r="G24"/>
-      <c r="H24"/>
       <c r="J24">
         <v>48</v>
       </c>
@@ -16092,8 +21132,6 @@
       <c r="F25" s="2">
         <v>489.6</v>
       </c>
-      <c r="G25"/>
-      <c r="H25"/>
       <c r="J25">
         <v>40</v>
       </c>
@@ -16105,8 +21143,6 @@
       <c r="F26" s="2">
         <v>492.48</v>
       </c>
-      <c r="G26"/>
-      <c r="H26"/>
       <c r="J26">
         <v>40</v>
       </c>
@@ -16118,8 +21154,6 @@
       <c r="F27" s="2">
         <v>518.4</v>
       </c>
-      <c r="G27"/>
-      <c r="H27"/>
       <c r="J27">
         <v>53</v>
       </c>
@@ -16131,8 +21165,6 @@
       <c r="F28" s="2">
         <v>518.4</v>
       </c>
-      <c r="G28"/>
-      <c r="H28"/>
       <c r="J28">
         <v>32</v>
       </c>
@@ -16144,8 +21176,6 @@
       <c r="F29" s="2">
         <v>806.4</v>
       </c>
-      <c r="G29"/>
-      <c r="H29"/>
       <c r="J29">
         <v>32</v>
       </c>
@@ -16157,8 +21187,6 @@
       <c r="F30" s="2">
         <v>504</v>
       </c>
-      <c r="G30"/>
-      <c r="H30"/>
       <c r="J30">
         <v>50</v>
       </c>
@@ -16170,8 +21198,6 @@
       <c r="F31" s="2">
         <v>777.6</v>
       </c>
-      <c r="G31"/>
-      <c r="H31"/>
       <c r="J31">
         <v>34</v>
       </c>
@@ -16183,8 +21209,6 @@
       <c r="F32" s="2">
         <v>547.2</v>
       </c>
-      <c r="G32"/>
-      <c r="H32"/>
       <c r="J32">
         <v>30</v>
       </c>
@@ -16196,8 +21220,6 @@
       <c r="F33" s="1">
         <v>230.4</v>
       </c>
-      <c r="G33"/>
-      <c r="H33"/>
       <c r="J33">
         <v>30</v>
       </c>
@@ -16209,8 +21231,6 @@
       <c r="F34" s="2">
         <v>518.4</v>
       </c>
-      <c r="G34"/>
-      <c r="H34"/>
       <c r="J34">
         <v>30</v>
       </c>
@@ -16222,8 +21242,6 @@
       <c r="F35" s="1">
         <v>230.4</v>
       </c>
-      <c r="G35"/>
-      <c r="H35"/>
       <c r="J35">
         <v>29</v>
       </c>
@@ -16235,8 +21253,6 @@
       <c r="F36" s="1">
         <v>230.4</v>
       </c>
-      <c r="G36"/>
-      <c r="H36"/>
       <c r="J36">
         <v>35</v>
       </c>
@@ -16248,8 +21264,6 @@
       <c r="F37" s="2">
         <v>576</v>
       </c>
-      <c r="G37"/>
-      <c r="H37"/>
       <c r="J37">
         <v>28</v>
       </c>
@@ -16261,8 +21275,6 @@
       <c r="F38" s="2">
         <v>754.56</v>
       </c>
-      <c r="G38"/>
-      <c r="H38"/>
       <c r="J38">
         <v>23</v>
       </c>
@@ -16274,8 +21286,6 @@
       <c r="F39" s="2">
         <v>446.4</v>
       </c>
-      <c r="G39"/>
-      <c r="H39"/>
       <c r="J39">
         <v>23</v>
       </c>
@@ -16287,8 +21297,6 @@
       <c r="F40" s="1">
         <v>230.4</v>
       </c>
-      <c r="G40"/>
-      <c r="H40"/>
       <c r="J40">
         <v>30</v>
       </c>
@@ -16300,8 +21308,6 @@
       <c r="F41" s="2">
         <v>547.2</v>
       </c>
-      <c r="G41"/>
-      <c r="H41"/>
       <c r="J41">
         <v>20</v>
       </c>
@@ -16313,8 +21319,6 @@
       <c r="F42" s="1">
         <v>230.4</v>
       </c>
-      <c r="G42"/>
-      <c r="H42"/>
       <c r="J42">
         <v>23</v>
       </c>
@@ -16326,8 +21330,6 @@
       <c r="F43" s="1">
         <v>230.4</v>
       </c>
-      <c r="G43"/>
-      <c r="H43"/>
       <c r="J43">
         <v>30</v>
       </c>
@@ -16339,8 +21341,6 @@
       <c r="F44" s="1">
         <v>230.4</v>
       </c>
-      <c r="G44"/>
-      <c r="H44"/>
       <c r="J44">
         <v>23</v>
       </c>
@@ -16352,8 +21352,6 @@
       <c r="F45" s="1">
         <v>230.4</v>
       </c>
-      <c r="G45"/>
-      <c r="H45"/>
       <c r="J45">
         <v>40</v>
       </c>
@@ -16365,8 +21363,6 @@
       <c r="F46" s="1">
         <v>230.4</v>
       </c>
-      <c r="G46"/>
-      <c r="H46"/>
       <c r="J46">
         <v>28</v>
       </c>
@@ -16378,8 +21374,6 @@
       <c r="F47" s="1">
         <v>230.4</v>
       </c>
-      <c r="G47"/>
-      <c r="H47"/>
       <c r="J47">
         <v>32</v>
       </c>
@@ -16391,8 +21385,6 @@
       <c r="F48" s="2">
         <v>619.2</v>
       </c>
-      <c r="G48"/>
-      <c r="H48"/>
       <c r="J48">
         <v>55</v>
       </c>
@@ -16404,8 +21396,6 @@
       <c r="F49" s="1">
         <v>230.4</v>
       </c>
-      <c r="G49"/>
-      <c r="H49"/>
       <c r="J49">
         <v>25</v>
       </c>
@@ -16417,8 +21407,6 @@
       <c r="F50" s="2">
         <v>806.4</v>
       </c>
-      <c r="G50"/>
-      <c r="H50"/>
       <c r="J50">
         <v>25</v>
       </c>
@@ -16430,8 +21418,6 @@
       <c r="F51" s="2">
         <v>604.8</v>
       </c>
-      <c r="G51"/>
-      <c r="H51"/>
       <c r="J51">
         <v>55</v>
       </c>
@@ -16443,8 +21429,6 @@
       <c r="F52" s="2">
         <v>518.4</v>
       </c>
-      <c r="G52"/>
-      <c r="H52"/>
       <c r="J52">
         <v>44</v>
       </c>
@@ -16456,8 +21440,6 @@
       <c r="F53" s="2">
         <v>604.8</v>
       </c>
-      <c r="G53"/>
-      <c r="H53"/>
       <c r="J53">
         <v>16</v>
       </c>
@@ -16469,8 +21451,6 @@
       <c r="F54" s="2">
         <v>532.8</v>
       </c>
-      <c r="G54"/>
-      <c r="H54"/>
       <c r="J54">
         <v>23</v>
       </c>
@@ -16482,8 +21462,6 @@
       <c r="F55" s="2">
         <v>489.6</v>
       </c>
-      <c r="G55"/>
-      <c r="H55"/>
       <c r="J55">
         <v>23</v>
       </c>
@@ -16495,8 +21473,6 @@
       <c r="F56" s="2">
         <v>619.2</v>
       </c>
-      <c r="G56"/>
-      <c r="H56"/>
       <c r="J56">
         <v>23</v>
       </c>
@@ -16508,8 +21484,6 @@
       <c r="F57" s="2">
         <v>720</v>
       </c>
-      <c r="G57"/>
-      <c r="H57"/>
       <c r="J57">
         <v>21</v>
       </c>
@@ -16521,8 +21495,6 @@
       <c r="F58" s="2">
         <v>576</v>
       </c>
-      <c r="G58"/>
-      <c r="H58"/>
       <c r="J58">
         <v>25</v>
       </c>
@@ -16534,8 +21506,6 @@
       <c r="F59" s="2">
         <v>532.8</v>
       </c>
-      <c r="G59"/>
-      <c r="H59"/>
       <c r="J59">
         <v>29</v>
       </c>
@@ -16547,8 +21517,6 @@
       <c r="F60" s="2">
         <v>630.72</v>
       </c>
-      <c r="G60"/>
-      <c r="H60"/>
       <c r="J60">
         <v>20</v>
       </c>
@@ -16560,8 +21528,6 @@
       <c r="F61" s="2">
         <v>489.6</v>
       </c>
-      <c r="G61"/>
-      <c r="H61"/>
       <c r="J61">
         <v>28</v>
       </c>
@@ -16573,8 +21539,6 @@
       <c r="F62" s="2">
         <v>547.2</v>
       </c>
-      <c r="G62"/>
-      <c r="H62"/>
       <c r="J62">
         <v>22</v>
       </c>
@@ -16586,8 +21550,6 @@
       <c r="F63" s="2">
         <v>705.6</v>
       </c>
-      <c r="G63"/>
-      <c r="H63"/>
       <c r="J63">
         <v>21</v>
       </c>
@@ -16599,8 +21561,6 @@
       <c r="F64" s="2">
         <v>504</v>
       </c>
-      <c r="G64"/>
-      <c r="H64"/>
       <c r="J64">
         <v>22</v>
       </c>
@@ -21619,7 +26579,6 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3"/>
       <c r="G3" t="s">
         <v>0</v>
       </c>
@@ -21634,7 +26593,6 @@
       <c r="B4">
         <v>35</v>
       </c>
-      <c r="C4"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -21649,7 +26607,6 @@
       <c r="B5">
         <v>12</v>
       </c>
-      <c r="C5"/>
       <c r="G5" t="s">
         <v>5</v>
       </c>
@@ -21664,7 +26621,6 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6"/>
       <c r="G6" t="s">
         <v>7</v>
       </c>
@@ -21679,7 +26635,6 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7"/>
       <c r="G7" t="s">
         <v>9</v>
       </c>
@@ -21694,7 +26649,6 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8"/>
       <c r="G8" t="s">
         <v>11</v>
       </c>
@@ -21709,7 +26663,6 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9"/>
       <c r="G9" t="s">
         <v>13</v>
       </c>
@@ -21724,7 +26677,6 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10"/>
       <c r="G10" t="s">
         <v>15</v>
       </c>
@@ -21739,7 +26691,6 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11"/>
       <c r="G11" t="s">
         <v>17</v>
       </c>
@@ -21754,7 +26705,6 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12"/>
       <c r="G12" t="s">
         <v>19</v>
       </c>
@@ -21769,7 +26719,6 @@
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13"/>
       <c r="G13" t="s">
         <v>21</v>
       </c>
@@ -21784,7 +26733,6 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14"/>
       <c r="G14" t="s">
         <v>23</v>
       </c>
@@ -21799,7 +26747,6 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15"/>
       <c r="G15" t="s">
         <v>25</v>
       </c>
@@ -21814,7 +26761,6 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16"/>
       <c r="G16" t="s">
         <v>27</v>
       </c>
@@ -21829,7 +26775,6 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17"/>
       <c r="G17" t="s">
         <v>29</v>
       </c>
@@ -21844,7 +26789,6 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18"/>
       <c r="G18" t="s">
         <v>28</v>
       </c>
@@ -21859,7 +26803,6 @@
       <c r="B19">
         <v>241</v>
       </c>
-      <c r="C19"/>
       <c r="G19" t="s">
         <v>26</v>
       </c>
@@ -21874,7 +26817,6 @@
       <c r="B20">
         <v>35</v>
       </c>
-      <c r="C20"/>
       <c r="G20" t="s">
         <v>24</v>
       </c>
@@ -22060,20 +27002,896 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A3:B109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="3"/>
+    <col min="2" max="2" width="11.5" style="3"/>
+    <col min="3" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3">
+        <v>192</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3">
+        <v>200</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3">
+        <v>230.4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <v>240</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3">
+        <v>250</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3">
+        <v>252</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3">
+        <v>264</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3">
+        <v>276</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3">
+        <v>288</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3">
+        <v>295</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3">
+        <v>300</v>
+      </c>
+      <c r="B14" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3">
+        <v>302</v>
+      </c>
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3">
+        <v>320</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3">
+        <v>336</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3">
+        <v>340</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3">
+        <v>346</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3">
+        <v>348</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3">
+        <v>350</v>
+      </c>
+      <c r="B21" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3">
+        <v>352</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3">
+        <v>360</v>
+      </c>
+      <c r="B23" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3">
+        <v>368</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3">
+        <v>370</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3">
+        <v>374</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3">
+        <v>375</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3">
+        <v>380</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3">
+        <v>384</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3">
+        <v>389</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3">
+        <v>390</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3">
+        <v>400</v>
+      </c>
+      <c r="B32" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
+        <v>403</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3">
+        <v>408</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3">
+        <v>410</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3">
+        <v>414</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3">
+        <v>420</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3">
+        <v>423</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3">
+        <v>430</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3">
+        <v>432</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3">
+        <v>435</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3">
+        <v>440</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3">
+        <v>446</v>
+      </c>
+      <c r="B43" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3">
+        <v>450</v>
+      </c>
+      <c r="B44" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3">
+        <v>455</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3">
+        <v>457</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3">
+        <v>460</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3">
+        <v>461</v>
+      </c>
+      <c r="B48" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3">
+        <v>467</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3">
+        <v>470</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3">
+        <v>472</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3">
+        <v>475</v>
+      </c>
+      <c r="B52" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3">
+        <v>480</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3">
+        <v>490</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3">
+        <v>492</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3">
+        <v>500</v>
+      </c>
+      <c r="B56" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3">
+        <v>504</v>
+      </c>
+      <c r="B57" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3">
+        <v>510</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3">
+        <v>513</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3">
+        <v>518</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3">
+        <v>520</v>
+      </c>
+      <c r="B61" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3">
+        <v>528</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3">
+        <v>530</v>
+      </c>
+      <c r="B63" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3">
+        <v>533</v>
+      </c>
+      <c r="B64" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3">
+        <v>540</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3">
+        <v>547</v>
+      </c>
+      <c r="B66" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3">
+        <v>550</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3">
+        <v>556</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3">
+        <v>560</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3">
+        <v>562</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3">
+        <v>564</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3">
+        <v>575</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3">
+        <v>576</v>
+      </c>
+      <c r="B73" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3">
+        <v>580</v>
+      </c>
+      <c r="B74" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3">
+        <v>590</v>
+      </c>
+      <c r="B75" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="3">
+        <v>597</v>
+      </c>
+      <c r="B76" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3">
+        <v>600</v>
+      </c>
+      <c r="B77" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3">
+        <v>605</v>
+      </c>
+      <c r="B78" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3">
+        <v>619</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3">
+        <v>620</v>
+      </c>
+      <c r="B80" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="3">
+        <v>631</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3">
+        <v>634</v>
+      </c>
+      <c r="B82" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3">
+        <v>636</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3">
+        <v>648</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3">
+        <v>650</v>
+      </c>
+      <c r="B85" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3">
+        <v>660</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3">
+        <v>690</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3">
+        <v>691</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="3">
+        <v>700</v>
+      </c>
+      <c r="B89" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3">
+        <v>703</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="3">
+        <v>706</v>
+      </c>
+      <c r="B91" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="3">
+        <v>720</v>
+      </c>
+      <c r="B92" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="3">
+        <v>737</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="3">
+        <v>740</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="3">
+        <v>755</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="3">
+        <v>768</v>
+      </c>
+      <c r="B96" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="3">
+        <v>774</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="3">
+        <v>778</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="3">
+        <v>780</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3">
+        <v>800</v>
+      </c>
+      <c r="B100" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="3">
+        <v>806</v>
+      </c>
+      <c r="B101" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="3">
+        <v>864</v>
+      </c>
+      <c r="B102" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="3">
+        <v>900</v>
+      </c>
+      <c r="B103" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="3">
+        <v>950</v>
+      </c>
+      <c r="B104" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B105" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="3">
+        <v>1100</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="3">
+        <v>1200</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="3">
+        <v>988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
